--- a/Code/Results/Cases/Case_3_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52078128949099</v>
+        <v>13.19849782464938</v>
       </c>
       <c r="C2">
-        <v>10.28587164596956</v>
+        <v>10.12136082065436</v>
       </c>
       <c r="D2">
-        <v>4.810804991200445</v>
+        <v>7.268754510153647</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.21092840075472</v>
+        <v>44.96505985538156</v>
       </c>
       <c r="G2">
-        <v>2.128683816841213</v>
+        <v>3.725170799146262</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.38270214533971</v>
+        <v>30.0611846307326</v>
       </c>
       <c r="J2">
-        <v>6.741129989037193</v>
+        <v>11.03391036539069</v>
       </c>
       <c r="K2">
-        <v>12.75992284959745</v>
+        <v>14.31864856071993</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.34631192550257</v>
+        <v>18.25461641881514</v>
       </c>
       <c r="N2">
-        <v>15.306264289567</v>
+        <v>22.82997783874619</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.69837790367322</v>
+        <v>13.0205858433888</v>
       </c>
       <c r="C3">
-        <v>9.693353764132141</v>
+        <v>9.999007579124344</v>
       </c>
       <c r="D3">
-        <v>4.602623006359671</v>
+        <v>7.254562798345503</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.49183738062138</v>
+        <v>44.93508627768469</v>
       </c>
       <c r="G3">
-        <v>2.136294633628941</v>
+        <v>3.727946290466772</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.23240430762037</v>
+        <v>30.09606714905927</v>
       </c>
       <c r="J3">
-        <v>6.693140755695485</v>
+        <v>11.05015101909576</v>
       </c>
       <c r="K3">
-        <v>12.08066619024081</v>
+        <v>14.20767039524706</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.83877217086232</v>
+        <v>18.21320492729587</v>
       </c>
       <c r="N3">
-        <v>15.48368062165293</v>
+        <v>22.88362488930545</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.17370256312652</v>
+        <v>12.91374347249712</v>
       </c>
       <c r="C4">
-        <v>9.318769028752856</v>
+        <v>9.926037118394323</v>
       </c>
       <c r="D4">
-        <v>4.472229470846552</v>
+        <v>7.247123105604734</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.06899996514029</v>
+        <v>44.92592443785571</v>
       </c>
       <c r="G4">
-        <v>2.141098097677218</v>
+        <v>3.72974016314335</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.1540848343287</v>
+        <v>30.12258025204242</v>
       </c>
       <c r="J4">
-        <v>6.666946891604367</v>
+        <v>11.06159431804126</v>
       </c>
       <c r="K4">
-        <v>11.65218644225006</v>
+        <v>14.14266559405713</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.52544770740572</v>
+        <v>18.19144835358809</v>
       </c>
       <c r="N4">
-        <v>15.59681871687081</v>
+        <v>22.91847731930287</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95509381706225</v>
+        <v>12.87086262078248</v>
       </c>
       <c r="C5">
-        <v>9.163555453727898</v>
+        <v>9.896878141385169</v>
       </c>
       <c r="D5">
-        <v>4.418523056869637</v>
+        <v>7.244414268568026</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.90142583009716</v>
+        <v>44.92451704690944</v>
       </c>
       <c r="G5">
-        <v>2.143089541642098</v>
+        <v>3.730493816242222</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.12556425361927</v>
+        <v>30.13466398265415</v>
       </c>
       <c r="J5">
-        <v>6.657079163290707</v>
+        <v>11.06662764139374</v>
       </c>
       <c r="K5">
-        <v>11.47490669683683</v>
+        <v>14.11698988299341</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.39751408125048</v>
+        <v>18.18351168763677</v>
       </c>
       <c r="N5">
-        <v>15.64396937144564</v>
+        <v>22.93316154830744</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.91850965320795</v>
+        <v>12.86378365015906</v>
       </c>
       <c r="C6">
-        <v>9.137632172211747</v>
+        <v>9.892072173381125</v>
       </c>
       <c r="D6">
-        <v>4.40957314075151</v>
+        <v>7.243984039471312</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.87388717855757</v>
+        <v>44.92442387805603</v>
       </c>
       <c r="G6">
-        <v>2.143422306483157</v>
+        <v>3.730620329157763</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.12103006347915</v>
+        <v>30.13674769361306</v>
       </c>
       <c r="J6">
-        <v>6.655488859089933</v>
+        <v>11.06748577462084</v>
       </c>
       <c r="K6">
-        <v>11.44531483782917</v>
+        <v>14.11277635025334</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.37626105613975</v>
+        <v>18.18225010951048</v>
       </c>
       <c r="N6">
-        <v>15.65186159021189</v>
+        <v>22.93562895636709</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.17077351898319</v>
+        <v>12.91316242830641</v>
       </c>
       <c r="C7">
-        <v>9.316685944286771</v>
+        <v>9.925641488103039</v>
       </c>
       <c r="D7">
-        <v>4.47150736737296</v>
+        <v>7.247085262718588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.06672078581697</v>
+        <v>44.92589603719475</v>
       </c>
       <c r="G7">
-        <v>2.141124815803229</v>
+        <v>3.729750235420248</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.15368660343679</v>
+        <v>30.12273803973871</v>
       </c>
       <c r="J7">
-        <v>6.666810568366429</v>
+        <v>11.06166070066867</v>
       </c>
       <c r="K7">
-        <v>11.64980610655262</v>
+        <v>14.14231599275187</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.52372312416352</v>
+        <v>18.19133754634683</v>
       </c>
       <c r="N7">
-        <v>15.59745038514026</v>
+        <v>22.91867340533405</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.24139047351825</v>
+        <v>13.13669019307041</v>
       </c>
       <c r="C8">
-        <v>10.08388278128698</v>
+        <v>10.07874765838927</v>
       </c>
       <c r="D8">
-        <v>4.739599487706676</v>
+        <v>7.263598356124951</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.95913117157042</v>
+        <v>44.95280847034259</v>
       </c>
       <c r="G8">
-        <v>2.131281711574133</v>
+        <v>3.726109215814652</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.32791191457834</v>
+        <v>30.07215364384202</v>
       </c>
       <c r="J8">
-        <v>6.723894642674333</v>
+        <v>11.03920479153512</v>
       </c>
       <c r="K8">
-        <v>12.52819123621255</v>
+        <v>14.27974819761219</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.17176252704211</v>
+        <v>18.23958005727325</v>
       </c>
       <c r="N8">
-        <v>15.36655761435828</v>
+        <v>22.84807865129733</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.35584656405897</v>
+        <v>13.59154536898877</v>
       </c>
       <c r="C9">
-        <v>11.49833529705098</v>
+        <v>10.39448588215323</v>
       </c>
       <c r="D9">
-        <v>5.242123036608536</v>
+        <v>7.305969115638988</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.85567086360098</v>
+        <v>45.07876594242538</v>
       </c>
       <c r="G9">
-        <v>2.112955636313798</v>
+        <v>3.719677474640686</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.78548945215307</v>
+        <v>30.013456139805</v>
       </c>
       <c r="J9">
-        <v>6.862507459747695</v>
+        <v>11.00684057473559</v>
       </c>
       <c r="K9">
-        <v>14.2323736362724</v>
+        <v>14.57294165462707</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.4224675772503</v>
+        <v>18.36298930005318</v>
       </c>
       <c r="N9">
-        <v>14.94774851171791</v>
+        <v>22.72479492111473</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.81762287895983</v>
+        <v>13.93242387094072</v>
       </c>
       <c r="C10">
-        <v>12.47881956424563</v>
+        <v>10.63370950515409</v>
       </c>
       <c r="D10">
-        <v>5.594105486995265</v>
+        <v>7.343012614620297</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.33631009785705</v>
+        <v>45.21563949705784</v>
       </c>
       <c r="G10">
-        <v>2.099998833531164</v>
+        <v>3.715378940110277</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.19931755034533</v>
+        <v>29.99510451541554</v>
       </c>
       <c r="J10">
-        <v>6.981580826289909</v>
+        <v>10.99017215912487</v>
       </c>
       <c r="K10">
-        <v>15.59068034069328</v>
+        <v>14.80110569789359</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.32169919316112</v>
+        <v>18.47074592469379</v>
       </c>
       <c r="N10">
-        <v>14.66182723256381</v>
+        <v>22.64341919038837</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.45210800244444</v>
+        <v>14.08824018909777</v>
       </c>
       <c r="C11">
-        <v>12.91841949208471</v>
+        <v>10.74363947219159</v>
       </c>
       <c r="D11">
-        <v>5.750028625414671</v>
+        <v>7.361106610362773</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.02857085688306</v>
+        <v>45.28744291152618</v>
       </c>
       <c r="G11">
-        <v>2.094193280239892</v>
+        <v>3.7135150661942</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.4059382373483</v>
+        <v>29.9921471892626</v>
       </c>
       <c r="J11">
-        <v>7.039705603988552</v>
+        <v>10.98413107218281</v>
       </c>
       <c r="K11">
-        <v>16.18054840565144</v>
+        <v>14.90729370812736</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.72538774938385</v>
+        <v>18.52336065895425</v>
       </c>
       <c r="N11">
-        <v>14.53679733671393</v>
+        <v>22.60838967644954</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.68808822324516</v>
+        <v>14.14729314624388</v>
       </c>
       <c r="C12">
-        <v>13.0945313551683</v>
+        <v>10.78538668343437</v>
       </c>
       <c r="D12">
-        <v>5.808441845800245</v>
+        <v>7.368133108059805</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.29339802346827</v>
+        <v>45.3159943940189</v>
       </c>
       <c r="G12">
-        <v>2.092005664185268</v>
+        <v>3.71282235061716</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.48694611814715</v>
+        <v>29.99180286287973</v>
       </c>
       <c r="J12">
-        <v>7.06230305246274</v>
+        <v>10.98206487653889</v>
       </c>
       <c r="K12">
-        <v>16.3999899669016</v>
+        <v>14.94781589407213</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.87741583969829</v>
+        <v>18.5437904323542</v>
       </c>
       <c r="N12">
-        <v>14.49020975957018</v>
+        <v>22.59541040107795</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.63745460951695</v>
+        <v>14.13457379377996</v>
       </c>
       <c r="C13">
-        <v>13.05671851668876</v>
+        <v>10.77639100654553</v>
       </c>
       <c r="D13">
-        <v>5.795889965506417</v>
+        <v>7.366612122525903</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.23624330773507</v>
+        <v>45.30978497136218</v>
       </c>
       <c r="G13">
-        <v>2.092476357523036</v>
+        <v>3.712970958135407</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.46937463186624</v>
+        <v>29.9918425252397</v>
       </c>
       <c r="J13">
-        <v>7.057409892879626</v>
+        <v>10.98250002455833</v>
       </c>
       <c r="K13">
-        <v>16.35290231984006</v>
+        <v>14.9390754150298</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.84471206285508</v>
+        <v>18.53936821142392</v>
       </c>
       <c r="N13">
-        <v>14.50020887895259</v>
+        <v>22.59819302135771</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.47160753418014</v>
+        <v>14.09309786837173</v>
       </c>
       <c r="C14">
-        <v>12.93296070348421</v>
+        <v>10.74707187982371</v>
       </c>
       <c r="D14">
-        <v>5.754847105986046</v>
+        <v>7.361681207122753</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.05030453957205</v>
+        <v>45.28976464699563</v>
       </c>
       <c r="G14">
-        <v>2.09401309846496</v>
+        <v>3.713457814072969</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.41254666551753</v>
+        <v>29.99210331745611</v>
       </c>
       <c r="J14">
-        <v>7.04155284275306</v>
+        <v>10.98395664864284</v>
       </c>
       <c r="K14">
-        <v>16.19868011880661</v>
+        <v>14.91062145025697</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.73791233246517</v>
+        <v>18.52503136090823</v>
       </c>
       <c r="N14">
-        <v>14.53294912800591</v>
+        <v>22.60731614081258</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.36946636192114</v>
+        <v>14.06769728121461</v>
       </c>
       <c r="C15">
-        <v>12.85681452495865</v>
+        <v>10.72912740509051</v>
       </c>
       <c r="D15">
-        <v>5.729624227449555</v>
+        <v>7.358683506882802</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.93676123662267</v>
+        <v>45.27767853384231</v>
       </c>
       <c r="G15">
-        <v>2.094955746119851</v>
+        <v>3.713757730365713</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.37810172913875</v>
+        <v>29.99236406375421</v>
       </c>
       <c r="J15">
-        <v>7.031916912279082</v>
+        <v>10.98487770252843</v>
       </c>
       <c r="K15">
-        <v>16.10370610159652</v>
+        <v>14.89323209283292</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.67238340713997</v>
+        <v>18.51631513630042</v>
       </c>
       <c r="N15">
-        <v>14.5531033824543</v>
+        <v>22.61294150429509</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.77555255964318</v>
+        <v>13.92225090494682</v>
       </c>
       <c r="C16">
-        <v>12.45025813690121</v>
+        <v>10.62654415466912</v>
       </c>
       <c r="D16">
-        <v>5.583828531213564</v>
+        <v>7.341854798428595</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.29144460928853</v>
+        <v>45.21113805113312</v>
       </c>
       <c r="G16">
-        <v>2.100379862427668</v>
+        <v>3.715502584737485</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.18619452355157</v>
+        <v>29.99540629980312</v>
       </c>
       <c r="J16">
-        <v>6.977863368641824</v>
+        <v>10.99059795809604</v>
       </c>
       <c r="K16">
-        <v>15.55157557612843</v>
+        <v>14.79421141833537</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.29520279499404</v>
+        <v>18.46737882963981</v>
       </c>
       <c r="N16">
-        <v>14.67010237213254</v>
+        <v>22.64574844053983</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.4034651440944</v>
+        <v>13.83317369978762</v>
       </c>
       <c r="C17">
-        <v>12.19850025643274</v>
+        <v>10.5638673692236</v>
       </c>
       <c r="D17">
-        <v>5.493290475206829</v>
+        <v>7.331846437876796</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.90034414305887</v>
+        <v>45.17275370863779</v>
       </c>
       <c r="G17">
-        <v>2.103728755816892</v>
+        <v>3.7165963934792</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.07325729309009</v>
+        <v>29.99865370971684</v>
       </c>
       <c r="J17">
-        <v>6.945729259392251</v>
+        <v>10.9945018071869</v>
       </c>
       <c r="K17">
-        <v>15.2057521789552</v>
+        <v>14.73405531346263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.06238318257638</v>
+        <v>18.43827109599608</v>
       </c>
       <c r="N17">
-        <v>14.7431899980467</v>
+        <v>22.66638354691676</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18657462844001</v>
+        <v>13.7820128015634</v>
       </c>
       <c r="C18">
-        <v>12.05247151432084</v>
+        <v>10.52792380332108</v>
       </c>
       <c r="D18">
-        <v>5.440821653477839</v>
+        <v>7.326207118114032</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.67715395579713</v>
+        <v>45.15157463116884</v>
       </c>
       <c r="G18">
-        <v>2.105663410751991</v>
+        <v>3.717234144816518</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.01002014475673</v>
+        <v>30.00102895411402</v>
       </c>
       <c r="J18">
-        <v>6.927617980702378</v>
+        <v>10.99689230378966</v>
       </c>
       <c r="K18">
-        <v>15.00419862202708</v>
+        <v>14.69968257385431</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.92796806393971</v>
+        <v>18.42186826783301</v>
       </c>
       <c r="N18">
-        <v>14.78569978956047</v>
+        <v>22.67843951998079</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11264247122018</v>
+        <v>13.76470512175451</v>
       </c>
       <c r="C19">
-        <v>12.00281857273676</v>
+        <v>10.51577343848948</v>
       </c>
       <c r="D19">
-        <v>5.422989976955563</v>
+        <v>7.324317993395489</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.60188852178199</v>
+        <v>45.14455839011159</v>
       </c>
       <c r="G19">
-        <v>2.106319960263551</v>
+        <v>3.717451559408059</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.98890105849546</v>
+        <v>30.00192030495166</v>
       </c>
       <c r="J19">
-        <v>6.921549078207617</v>
+        <v>10.99772661310864</v>
       </c>
       <c r="K19">
-        <v>14.93549875269251</v>
+        <v>14.6880846291522</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.88237334310056</v>
+        <v>18.41637313871435</v>
       </c>
       <c r="N19">
-        <v>14.80017295141639</v>
+        <v>22.68255362860839</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.44337142173714</v>
+        <v>13.84264889807862</v>
       </c>
       <c r="C20">
-        <v>12.22542703944606</v>
+        <v>10.57052869216117</v>
       </c>
       <c r="D20">
-        <v>5.502969384076365</v>
+        <v>7.332899741014674</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.94179537701362</v>
+        <v>45.17674685959232</v>
       </c>
       <c r="G20">
-        <v>2.103371398140792</v>
+        <v>3.716479063901827</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.08510061398876</v>
+        <v>29.99825549767528</v>
       </c>
       <c r="J20">
-        <v>6.949111425225365</v>
+        <v>10.99407121937189</v>
       </c>
       <c r="K20">
-        <v>15.2428387077114</v>
+        <v>14.74043573211275</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.08721988504535</v>
+        <v>18.44133464095315</v>
       </c>
       <c r="N20">
-        <v>14.73536064612404</v>
+        <v>22.6641675319751</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.52043632539519</v>
+        <v>14.1052794946089</v>
       </c>
       <c r="C21">
-        <v>12.96938229265326</v>
+        <v>10.75568070068802</v>
       </c>
       <c r="D21">
-        <v>5.766919713212676</v>
+        <v>7.363124828330422</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.10484639633465</v>
+        <v>45.29560825393211</v>
       </c>
       <c r="G21">
-        <v>2.093561442838694</v>
+        <v>3.713314457912581</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.42916236786748</v>
+        <v>29.99200566728944</v>
       </c>
       <c r="J21">
-        <v>7.046194368921838</v>
+        <v>10.9835227952528</v>
       </c>
       <c r="K21">
-        <v>16.24408468822109</v>
+        <v>14.91897089398764</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.7693052246374</v>
+        <v>18.52922881037532</v>
       </c>
       <c r="N21">
-        <v>14.52331163267936</v>
+        <v>22.60462870980736</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.19943277577082</v>
+        <v>14.27718132155451</v>
       </c>
       <c r="C22">
-        <v>13.47715875662451</v>
+        <v>10.87736446540734</v>
       </c>
       <c r="D22">
-        <v>5.935738040566696</v>
+        <v>7.383894917474319</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.8806196646519</v>
+        <v>45.38121853899768</v>
       </c>
       <c r="G22">
-        <v>2.087212125648797</v>
+        <v>3.71132248808952</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.67020423226841</v>
+        <v>29.99244144562447</v>
       </c>
       <c r="J22">
-        <v>7.113073425152523</v>
+        <v>10.97791933259633</v>
       </c>
       <c r="K22">
-        <v>16.8756104824504</v>
+        <v>15.03745152795059</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.21017561221177</v>
+        <v>18.58961467415212</v>
       </c>
       <c r="N22">
-        <v>14.38916728102565</v>
+        <v>22.56738144421222</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.8392858772838</v>
+        <v>14.18542962882076</v>
       </c>
       <c r="C23">
-        <v>13.20752565637583</v>
+        <v>10.81237071411121</v>
       </c>
       <c r="D23">
-        <v>5.845981339010565</v>
+        <v>7.372717920774686</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.46513918605622</v>
+        <v>45.33480524043911</v>
       </c>
       <c r="G23">
-        <v>2.09059587642692</v>
+        <v>3.712378683595964</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.54003346297778</v>
+        <v>29.99179522281539</v>
       </c>
       <c r="J23">
-        <v>7.077058830719407</v>
+        <v>10.98079200829337</v>
       </c>
       <c r="K23">
-        <v>16.5406079313604</v>
+        <v>14.97406280383927</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.97534067965327</v>
+        <v>18.55712034276286</v>
       </c>
       <c r="N23">
-        <v>14.46034319964639</v>
+        <v>22.58710878659102</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.4253390596174</v>
+        <v>13.83836499823521</v>
       </c>
       <c r="C24">
-        <v>12.21325745848723</v>
+        <v>10.5675168241873</v>
       </c>
       <c r="D24">
-        <v>5.498594846905545</v>
+        <v>7.332423185349503</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.92305010682776</v>
+        <v>45.17493878721429</v>
       </c>
       <c r="G24">
-        <v>2.103532930337693</v>
+        <v>3.716532080855394</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.07974098781723</v>
+        <v>29.99843394604883</v>
       </c>
       <c r="J24">
-        <v>6.947581218562698</v>
+        <v>10.99426543294605</v>
       </c>
       <c r="K24">
-        <v>15.2260804148718</v>
+        <v>14.73755048252459</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.07599296332543</v>
+        <v>18.43994857851882</v>
       </c>
       <c r="N24">
-        <v>14.73889877008172</v>
+        <v>22.66516879237145</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78989480782093</v>
+        <v>13.46707500227287</v>
       </c>
       <c r="C25">
-        <v>11.12582848153985</v>
+        <v>10.30763625733711</v>
       </c>
       <c r="D25">
-        <v>5.109014980425671</v>
+        <v>7.293454547711445</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.32715025199941</v>
+        <v>45.03687953811198</v>
       </c>
       <c r="G25">
-        <v>2.117817469707524</v>
+        <v>3.721342114911516</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.64856969479046</v>
+        <v>30.02498976458906</v>
       </c>
       <c r="J25">
-        <v>6.822052792841454</v>
+        <v>11.01434685142863</v>
       </c>
       <c r="K25">
-        <v>13.7249392978142</v>
+        <v>14.49125887949696</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.08711632871529</v>
+        <v>18.32656561032071</v>
       </c>
       <c r="N25">
-        <v>15.05731411940889</v>
+        <v>22.7565281167587</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19849782464938</v>
+        <v>13.52078128949103</v>
       </c>
       <c r="C2">
-        <v>10.12136082065436</v>
+        <v>10.28587164596957</v>
       </c>
       <c r="D2">
-        <v>7.268754510153647</v>
+        <v>4.810804991200465</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.96505985538156</v>
+        <v>34.2109284007547</v>
       </c>
       <c r="G2">
-        <v>3.725170799146262</v>
+        <v>2.128683816841212</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>30.0611846307326</v>
+        <v>21.38270214533965</v>
       </c>
       <c r="J2">
-        <v>11.03391036539069</v>
+        <v>6.741129989037245</v>
       </c>
       <c r="K2">
-        <v>14.31864856071993</v>
+        <v>12.75992284959744</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.25461641881514</v>
+        <v>13.34631192550256</v>
       </c>
       <c r="N2">
-        <v>22.82997783874619</v>
+        <v>15.30626428956693</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.0205858433888</v>
+        <v>12.69837790367322</v>
       </c>
       <c r="C3">
-        <v>9.999007579124344</v>
+        <v>9.693353764132087</v>
       </c>
       <c r="D3">
-        <v>7.254562798345503</v>
+        <v>4.602623006359639</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>44.93508627768469</v>
+        <v>33.49183738062115</v>
       </c>
       <c r="G3">
-        <v>3.727946290466772</v>
+        <v>2.136294633628942</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.09606714905927</v>
+        <v>21.23240430762016</v>
       </c>
       <c r="J3">
-        <v>11.05015101909576</v>
+        <v>6.693140755695443</v>
       </c>
       <c r="K3">
-        <v>14.20767039524706</v>
+        <v>12.08066619024076</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.21320492729587</v>
+        <v>12.83877217086226</v>
       </c>
       <c r="N3">
-        <v>22.88362488930545</v>
+        <v>15.48368062165285</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.91374347249712</v>
+        <v>12.17370256312654</v>
       </c>
       <c r="C4">
-        <v>9.926037118394323</v>
+        <v>9.318769028752801</v>
       </c>
       <c r="D4">
-        <v>7.247123105604734</v>
+        <v>4.472229470846552</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>44.92592443785571</v>
+        <v>33.06899996514028</v>
       </c>
       <c r="G4">
-        <v>3.72974016314335</v>
+        <v>2.141098097677218</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.12258025204242</v>
+        <v>21.15408483432871</v>
       </c>
       <c r="J4">
-        <v>11.06159431804126</v>
+        <v>6.666946891604314</v>
       </c>
       <c r="K4">
-        <v>14.14266559405713</v>
+        <v>11.65218644225004</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.19144835358809</v>
+        <v>12.52544770740568</v>
       </c>
       <c r="N4">
-        <v>22.91847731930287</v>
+        <v>15.59681871687082</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.87086262078248</v>
+        <v>11.9550938170622</v>
       </c>
       <c r="C5">
-        <v>9.896878141385169</v>
+        <v>9.163555453727881</v>
       </c>
       <c r="D5">
-        <v>7.244414268568026</v>
+        <v>4.418523056869679</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>44.92451704690944</v>
+        <v>32.90142583009703</v>
       </c>
       <c r="G5">
-        <v>3.730493816242222</v>
+        <v>2.1430895416425</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.13466398265415</v>
+        <v>21.12556425361911</v>
       </c>
       <c r="J5">
-        <v>11.06662764139374</v>
+        <v>6.657079163290687</v>
       </c>
       <c r="K5">
-        <v>14.11698988299341</v>
+        <v>11.47490669683678</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.18351168763677</v>
+        <v>12.39751408125045</v>
       </c>
       <c r="N5">
-        <v>22.93316154830744</v>
+        <v>15.64396937144561</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.86378365015906</v>
+        <v>11.91850965320794</v>
       </c>
       <c r="C6">
-        <v>9.892072173381125</v>
+        <v>9.137632172211733</v>
       </c>
       <c r="D6">
-        <v>7.243984039471312</v>
+        <v>4.409573140751594</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>44.92442387805603</v>
+        <v>32.87388717855757</v>
       </c>
       <c r="G6">
-        <v>3.730620329157763</v>
+        <v>2.14342230648329</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.13674769361306</v>
+        <v>21.12103006347911</v>
       </c>
       <c r="J6">
-        <v>11.06748577462084</v>
+        <v>6.655488859089935</v>
       </c>
       <c r="K6">
-        <v>14.11277635025334</v>
+        <v>11.44531483782915</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.18225010951048</v>
+        <v>12.37626105613976</v>
       </c>
       <c r="N6">
-        <v>22.93562895636709</v>
+        <v>15.65186159021188</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.91316242830641</v>
+        <v>12.17077351898321</v>
       </c>
       <c r="C7">
-        <v>9.925641488103039</v>
+        <v>9.316685944286792</v>
       </c>
       <c r="D7">
-        <v>7.247085262718588</v>
+        <v>4.471507367373038</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>44.92589603719475</v>
+        <v>33.06672078581687</v>
       </c>
       <c r="G7">
-        <v>3.729750235420248</v>
+        <v>2.141124815802963</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.12273803973871</v>
+        <v>21.15368660343664</v>
       </c>
       <c r="J7">
-        <v>11.06166070066867</v>
+        <v>6.666810568366407</v>
       </c>
       <c r="K7">
-        <v>14.14231599275187</v>
+        <v>11.6498061065526</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.19133754634683</v>
+        <v>12.5237231241635</v>
       </c>
       <c r="N7">
-        <v>22.91867340533405</v>
+        <v>15.59745038514016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.13669019307041</v>
+        <v>13.24139047351827</v>
       </c>
       <c r="C8">
-        <v>10.07874765838927</v>
+        <v>10.08388278128694</v>
       </c>
       <c r="D8">
-        <v>7.263598356124951</v>
+        <v>4.739599487706684</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.95280847034259</v>
+        <v>33.95913117157036</v>
       </c>
       <c r="G8">
-        <v>3.726109215814652</v>
+        <v>2.1312817115744</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.07215364384202</v>
+        <v>21.32791191457833</v>
       </c>
       <c r="J8">
-        <v>11.03920479153512</v>
+        <v>6.723894642674279</v>
       </c>
       <c r="K8">
-        <v>14.27974819761219</v>
+        <v>12.52819123621255</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.23958005727325</v>
+        <v>13.17176252704207</v>
       </c>
       <c r="N8">
-        <v>22.84807865129733</v>
+        <v>15.36655761435826</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.59154536898877</v>
+        <v>15.35584656405898</v>
       </c>
       <c r="C9">
-        <v>10.39448588215323</v>
+        <v>11.49833529705095</v>
       </c>
       <c r="D9">
-        <v>7.305969115638988</v>
+        <v>5.242123036608496</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.07876594242538</v>
+        <v>35.855670863601</v>
       </c>
       <c r="G9">
-        <v>3.719677474640686</v>
+        <v>2.112955636313933</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.013456139805</v>
+        <v>21.78548945215317</v>
       </c>
       <c r="J9">
-        <v>11.00684057473559</v>
+        <v>6.862507459747633</v>
       </c>
       <c r="K9">
-        <v>14.57294165462707</v>
+        <v>14.23237363627242</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.36298930005318</v>
+        <v>14.42246757725028</v>
       </c>
       <c r="N9">
-        <v>22.72479492111473</v>
+        <v>14.94774851171799</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.93242387094072</v>
+        <v>16.8176228789598</v>
       </c>
       <c r="C10">
-        <v>10.63370950515409</v>
+        <v>12.47881956424559</v>
       </c>
       <c r="D10">
-        <v>7.343012614620297</v>
+        <v>5.594105486995224</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.21563949705784</v>
+        <v>37.33631009785707</v>
       </c>
       <c r="G10">
-        <v>3.715378940110277</v>
+        <v>2.099998833531164</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.99510451541554</v>
+        <v>22.19931755034539</v>
       </c>
       <c r="J10">
-        <v>10.99017215912487</v>
+        <v>6.981580826289914</v>
       </c>
       <c r="K10">
-        <v>14.80110569789359</v>
+        <v>15.59068034069325</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.47074592469379</v>
+        <v>15.32169919316112</v>
       </c>
       <c r="N10">
-        <v>22.64341919038837</v>
+        <v>14.66182723256382</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.08824018909777</v>
+        <v>17.45210800244447</v>
       </c>
       <c r="C11">
-        <v>10.74363947219159</v>
+        <v>12.91841949208463</v>
       </c>
       <c r="D11">
-        <v>7.361106610362773</v>
+        <v>5.750028625414681</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.28744291152618</v>
+        <v>38.02857085688311</v>
       </c>
       <c r="G11">
-        <v>3.7135150661942</v>
+        <v>2.094193280239892</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.9921471892626</v>
+        <v>22.40593823734832</v>
       </c>
       <c r="J11">
-        <v>10.98413107218281</v>
+        <v>7.039705603988546</v>
       </c>
       <c r="K11">
-        <v>14.90729370812736</v>
+        <v>16.18054840565143</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.52336065895425</v>
+        <v>15.72538774938384</v>
       </c>
       <c r="N11">
-        <v>22.60838967644954</v>
+        <v>14.53679733671399</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.14729314624388</v>
+        <v>17.68808822324504</v>
       </c>
       <c r="C12">
-        <v>10.78538668343437</v>
+        <v>13.09453135516822</v>
       </c>
       <c r="D12">
-        <v>7.368133108059805</v>
+        <v>5.808441845800185</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.3159943940189</v>
+        <v>38.29339802346839</v>
       </c>
       <c r="G12">
-        <v>3.71282235061716</v>
+        <v>2.09200566418487</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.99180286287973</v>
+        <v>22.48694611814734</v>
       </c>
       <c r="J12">
-        <v>10.98206487653889</v>
+        <v>7.062303052462735</v>
       </c>
       <c r="K12">
-        <v>14.94781589407213</v>
+        <v>16.39998996690145</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.5437904323542</v>
+        <v>15.87741583969829</v>
       </c>
       <c r="N12">
-        <v>22.59541040107795</v>
+        <v>14.49020975957029</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.13457379377996</v>
+        <v>17.63745460951699</v>
       </c>
       <c r="C13">
-        <v>10.77639100654553</v>
+        <v>13.05671851668875</v>
       </c>
       <c r="D13">
-        <v>7.366612122525903</v>
+        <v>5.79588996550642</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.30978497136218</v>
+        <v>38.23624330773509</v>
       </c>
       <c r="G13">
-        <v>3.712970958135407</v>
+        <v>2.092476357523434</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.9918425252397</v>
+        <v>22.46937463186625</v>
       </c>
       <c r="J13">
-        <v>10.98250002455833</v>
+        <v>7.057409892879623</v>
       </c>
       <c r="K13">
-        <v>14.9390754150298</v>
+        <v>16.35290231984009</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.53936821142392</v>
+        <v>15.84471206285507</v>
       </c>
       <c r="N13">
-        <v>22.59819302135771</v>
+        <v>14.50020887895258</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.09309786837173</v>
+        <v>17.47160753418019</v>
       </c>
       <c r="C14">
-        <v>10.74707187982371</v>
+        <v>12.9329607034843</v>
       </c>
       <c r="D14">
-        <v>7.361681207122753</v>
+        <v>5.754847105986038</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.28976464699563</v>
+        <v>38.05030453957194</v>
       </c>
       <c r="G14">
-        <v>3.713457814072969</v>
+        <v>2.094013098465089</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.99210331745611</v>
+        <v>22.41254666551742</v>
       </c>
       <c r="J14">
-        <v>10.98395664864284</v>
+        <v>7.04155284275304</v>
       </c>
       <c r="K14">
-        <v>14.91062145025697</v>
+        <v>16.19868011880672</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.52503136090823</v>
+        <v>15.73791233246514</v>
       </c>
       <c r="N14">
-        <v>22.60731614081258</v>
+        <v>14.53294912800576</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.06769728121461</v>
+        <v>17.36946636192118</v>
       </c>
       <c r="C15">
-        <v>10.72912740509051</v>
+        <v>12.85681452495866</v>
       </c>
       <c r="D15">
-        <v>7.358683506882802</v>
+        <v>5.729624227449519</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.27767853384231</v>
+        <v>37.93676123662262</v>
       </c>
       <c r="G15">
-        <v>3.713757730365713</v>
+        <v>2.094955746119584</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.99236406375421</v>
+        <v>22.37810172913876</v>
       </c>
       <c r="J15">
-        <v>10.98487770252843</v>
+        <v>7.031916912279105</v>
       </c>
       <c r="K15">
-        <v>14.89323209283292</v>
+        <v>16.10370610159656</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.51631513630042</v>
+        <v>15.67238340713996</v>
       </c>
       <c r="N15">
-        <v>22.61294150429509</v>
+        <v>14.55310338245434</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.92225090494682</v>
+        <v>16.77555255964327</v>
       </c>
       <c r="C16">
-        <v>10.62654415466912</v>
+        <v>12.45025813690121</v>
       </c>
       <c r="D16">
-        <v>7.341854798428595</v>
+        <v>5.583828531213516</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.21113805113312</v>
+        <v>37.29144460928838</v>
       </c>
       <c r="G16">
-        <v>3.715502584737485</v>
+        <v>2.100379862427399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.99540629980312</v>
+        <v>22.18619452355145</v>
       </c>
       <c r="J16">
-        <v>10.99059795809604</v>
+        <v>6.977863368641855</v>
       </c>
       <c r="K16">
-        <v>14.79421141833537</v>
+        <v>15.55157557612852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.46737882963981</v>
+        <v>15.29520279499401</v>
       </c>
       <c r="N16">
-        <v>22.64574844053983</v>
+        <v>14.67010237213249</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.83317369978762</v>
+        <v>16.4034651440944</v>
       </c>
       <c r="C17">
-        <v>10.5638673692236</v>
+        <v>12.19850025643273</v>
       </c>
       <c r="D17">
-        <v>7.331846437876796</v>
+        <v>5.493290475206765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.17275370863779</v>
+        <v>36.90034414305885</v>
       </c>
       <c r="G17">
-        <v>3.7165963934792</v>
+        <v>2.103728755816493</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.99865370971684</v>
+        <v>22.07325729309015</v>
       </c>
       <c r="J17">
-        <v>10.9945018071869</v>
+        <v>6.945729259392232</v>
       </c>
       <c r="K17">
-        <v>14.73405531346263</v>
+        <v>15.20575217895521</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.43827109599608</v>
+        <v>15.06238318257636</v>
       </c>
       <c r="N17">
-        <v>22.66638354691676</v>
+        <v>14.74318999804679</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.7820128015634</v>
+        <v>16.18657462844006</v>
       </c>
       <c r="C18">
-        <v>10.52792380332108</v>
+        <v>12.05247151432086</v>
       </c>
       <c r="D18">
-        <v>7.326207118114032</v>
+        <v>5.440821653477782</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.15157463116884</v>
+        <v>36.67715395579707</v>
       </c>
       <c r="G18">
-        <v>3.717234144816518</v>
+        <v>2.105663410752127</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.00102895411402</v>
+        <v>22.01002014475668</v>
       </c>
       <c r="J18">
-        <v>10.99689230378966</v>
+        <v>6.927617980702403</v>
       </c>
       <c r="K18">
-        <v>14.69968257385431</v>
+        <v>15.00419862202712</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.42186826783301</v>
+        <v>14.92796806393971</v>
       </c>
       <c r="N18">
-        <v>22.67843951998079</v>
+        <v>14.78569978956044</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.76470512175451</v>
+        <v>16.1126424712202</v>
       </c>
       <c r="C19">
-        <v>10.51577343848948</v>
+        <v>12.00281857273677</v>
       </c>
       <c r="D19">
-        <v>7.324317993395489</v>
+        <v>5.422989976955596</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.14455839011159</v>
+        <v>36.60188852178202</v>
       </c>
       <c r="G19">
-        <v>3.717451559408059</v>
+        <v>2.106319960263414</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.00192030495166</v>
+        <v>21.98890105849544</v>
       </c>
       <c r="J19">
-        <v>10.99772661310864</v>
+        <v>6.921549078207553</v>
       </c>
       <c r="K19">
-        <v>14.6880846291522</v>
+        <v>14.9354987526926</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.41637313871435</v>
+        <v>14.88237334310051</v>
       </c>
       <c r="N19">
-        <v>22.68255362860839</v>
+        <v>14.8001729514163</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.84264889807862</v>
+        <v>16.44337142173724</v>
       </c>
       <c r="C20">
-        <v>10.57052869216117</v>
+        <v>12.22542703944599</v>
       </c>
       <c r="D20">
-        <v>7.332899741014674</v>
+        <v>5.502969384076282</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.17674685959232</v>
+        <v>36.94179537701352</v>
       </c>
       <c r="G20">
-        <v>3.716479063901827</v>
+        <v>2.103371398140931</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.99825549767528</v>
+        <v>22.08510061398875</v>
       </c>
       <c r="J20">
-        <v>10.99407121937189</v>
+        <v>6.949111425225371</v>
       </c>
       <c r="K20">
-        <v>14.74043573211275</v>
+        <v>15.24283870771143</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.44133464095315</v>
+        <v>15.08721988504531</v>
       </c>
       <c r="N20">
-        <v>22.6641675319751</v>
+        <v>14.73536064612406</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.1052794946089</v>
+        <v>17.5204363253952</v>
       </c>
       <c r="C21">
-        <v>10.75568070068802</v>
+        <v>12.96938229265324</v>
       </c>
       <c r="D21">
-        <v>7.363124828330422</v>
+        <v>5.766919713212713</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.29560825393211</v>
+        <v>38.10484639633469</v>
       </c>
       <c r="G21">
-        <v>3.713314457912581</v>
+        <v>2.093561442838957</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.99200566728944</v>
+        <v>22.42916236786748</v>
       </c>
       <c r="J21">
-        <v>10.9835227952528</v>
+        <v>7.046194368921829</v>
       </c>
       <c r="K21">
-        <v>14.91897089398764</v>
+        <v>16.2440846882211</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.52922881037532</v>
+        <v>15.76930522463742</v>
       </c>
       <c r="N21">
-        <v>22.60462870980736</v>
+        <v>14.52331163267933</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.27718132155451</v>
+        <v>18.19943277577083</v>
       </c>
       <c r="C22">
-        <v>10.87736446540734</v>
+        <v>13.47715875662454</v>
       </c>
       <c r="D22">
-        <v>7.383894917474319</v>
+        <v>5.935738040566655</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.38121853899768</v>
+        <v>38.88061966465192</v>
       </c>
       <c r="G22">
-        <v>3.71132248808952</v>
+        <v>2.087212125648932</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.99244144562447</v>
+        <v>22.67020423226847</v>
       </c>
       <c r="J22">
-        <v>10.97791933259633</v>
+        <v>7.113073425152498</v>
       </c>
       <c r="K22">
-        <v>15.03745152795059</v>
+        <v>16.87561048245042</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.58961467415212</v>
+        <v>16.21017561221175</v>
       </c>
       <c r="N22">
-        <v>22.56738144421222</v>
+        <v>14.38916728102567</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.18542962882076</v>
+        <v>17.83928587728386</v>
       </c>
       <c r="C23">
-        <v>10.81237071411121</v>
+        <v>13.2075256563758</v>
       </c>
       <c r="D23">
-        <v>7.372717920774686</v>
+        <v>5.845981339010544</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.33480524043911</v>
+        <v>38.46513918605612</v>
       </c>
       <c r="G23">
-        <v>3.712378683595964</v>
+        <v>2.090595876427188</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.99179522281539</v>
+        <v>22.54003346297774</v>
       </c>
       <c r="J23">
-        <v>10.98079200829337</v>
+        <v>7.077058830719449</v>
       </c>
       <c r="K23">
-        <v>14.97406280383927</v>
+        <v>16.54060793136044</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.55712034276286</v>
+        <v>15.97534067965324</v>
       </c>
       <c r="N23">
-        <v>22.58710878659102</v>
+        <v>14.46034319964639</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.83836499823521</v>
+        <v>16.42533905961737</v>
       </c>
       <c r="C24">
-        <v>10.5675168241873</v>
+        <v>12.21325745848727</v>
       </c>
       <c r="D24">
-        <v>7.332423185349503</v>
+        <v>5.498594846905479</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.17493878721429</v>
+        <v>36.92305010682776</v>
       </c>
       <c r="G24">
-        <v>3.716532080855394</v>
+        <v>2.103532930337694</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.99843394604883</v>
+        <v>22.07974098781729</v>
       </c>
       <c r="J24">
-        <v>10.99426543294605</v>
+        <v>6.947581218562688</v>
       </c>
       <c r="K24">
-        <v>14.73755048252459</v>
+        <v>15.22608041487181</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.43994857851882</v>
+        <v>15.0759929633254</v>
       </c>
       <c r="N24">
-        <v>22.66516879237145</v>
+        <v>14.73889877008173</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.46707500227287</v>
+        <v>14.78989480782083</v>
       </c>
       <c r="C25">
-        <v>10.30763625733711</v>
+        <v>11.12582848153984</v>
       </c>
       <c r="D25">
-        <v>7.293454547711445</v>
+        <v>5.109014980425671</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.03687953811198</v>
+        <v>35.32715025199945</v>
       </c>
       <c r="G25">
-        <v>3.721342114911516</v>
+        <v>2.117817469707794</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.02498976458906</v>
+        <v>21.64856969479056</v>
       </c>
       <c r="J25">
-        <v>11.01434685142863</v>
+        <v>6.822052792841446</v>
       </c>
       <c r="K25">
-        <v>14.49125887949696</v>
+        <v>13.7249392978142</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.32656561032071</v>
+        <v>14.0871163287153</v>
       </c>
       <c r="N25">
-        <v>22.7565281167587</v>
+        <v>15.0573141194089</v>
       </c>
       <c r="O25">
         <v>0</v>
